--- a/quantitative-methods/01_Lanitt/editing_word_docs/Files inventory.xlsx
+++ b/quantitative-methods/01_Lanitt/editing_word_docs/Files inventory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="divisão_resumo" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">divisão_lanitt_analítico!$A$1:$E$733</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -8290,7 +8290,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F2:H10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -8630,7 +8630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8688,11 +8688,11 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
-        <f>C3+1</f>
+        <f t="shared" ref="B4:B9" si="0">C3+1</f>
         <v>105</v>
       </c>
       <c r="C4" s="3">
-        <f>B4+104</f>
+        <f t="shared" ref="C4:C9" si="1">B4+104</f>
         <v>209</v>
       </c>
       <c r="D4" t="s">
@@ -8710,11 +8710,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
-        <f>C4+1</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="C5" s="3">
-        <f>B5+104</f>
+        <f t="shared" si="1"/>
         <v>314</v>
       </c>
       <c r="D5" t="s">
@@ -8732,11 +8732,11 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
-        <f>C5+1</f>
+        <f t="shared" si="0"/>
         <v>315</v>
       </c>
       <c r="C6" s="3">
-        <f>B6+104</f>
+        <f t="shared" si="1"/>
         <v>419</v>
       </c>
       <c r="D6" t="s">
@@ -8754,11 +8754,11 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <f>C6+1</f>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="C7" s="3">
-        <f>B7+104</f>
+        <f t="shared" si="1"/>
         <v>524</v>
       </c>
       <c r="D7" t="s">
@@ -8776,11 +8776,11 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
-        <f>C7+1</f>
+        <f t="shared" si="0"/>
         <v>525</v>
       </c>
       <c r="C8" s="3">
-        <f>B8+104</f>
+        <f t="shared" si="1"/>
         <v>629</v>
       </c>
       <c r="D8" t="s">
@@ -8798,11 +8798,11 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
-        <f>C8+1</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="C9" s="3">
-        <f>B9+104</f>
+        <f t="shared" si="1"/>
         <v>734</v>
       </c>
       <c r="D9" t="s">
@@ -8838,7 +8838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E733"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
